--- a/cattle_dataset.xlsx
+++ b/cattle_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf Omotosho\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf Omotosho\Desktop\r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E0249-4FD0-4997-A82B-15DD7899E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE396F18-ED7C-423D-9F4D-A4C896C36817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C73E903D-ED16-4266-9677-717C67666A96}"/>
   </bookViews>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FBF7BD-7AEA-4A50-B3C9-433E535F2DBB}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,12 +1566,6 @@
       </c>
       <c r="D80" s="2">
         <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="2">
-        <f>MAX(D2:D80)</f>
-        <v>325.33333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -1589,14 +1583,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e703ff94-ac7c-4d23-a008-95e09554323f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029B6F12196484C4F8203C1A8828F9D31" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04817eb69ccfc943b011e1417a0e795e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e703ff94-ac7c-4d23-a008-95e09554323f" xmlns:ns4="6b045360-4db2-4151-8a69-ee96b3f2b119" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80ac6104d79dde95f11462676dd5e4f2" ns3:_="" ns4:_="">
     <xsd:import namespace="e703ff94-ac7c-4d23-a008-95e09554323f"/>
@@ -1791,6 +1777,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e703ff94-ac7c-4d23-a008-95e09554323f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE298E03-B45E-4D91-81DE-971397E23BBD}">
   <ds:schemaRefs>
@@ -1800,23 +1794,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C059A88A-023A-4407-8570-B68BE200F1C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e703ff94-ac7c-4d23-a008-95e09554323f"/>
-    <ds:schemaRef ds:uri="6b045360-4db2-4151-8a69-ee96b3f2b119"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A9B332-EE01-4E85-86FC-977A5E874B6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1833,4 +1810,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C059A88A-023A-4407-8570-B68BE200F1C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e703ff94-ac7c-4d23-a008-95e09554323f"/>
+    <ds:schemaRef ds:uri="6b045360-4db2-4151-8a69-ee96b3f2b119"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>